--- a/src/main/resources/sample/excel/Demo_1.xlsx
+++ b/src/main/resources/sample/excel/Demo_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\src\main\resources\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F6918F-60B3-4CA4-8B4A-3E7B7CCFABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5B7C5-63D7-42B0-94F5-A31BA63D7DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24510" yWindow="4245" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizontal Table Single" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -70,6 +70,9 @@
   <si>
     <t>Throw</t>
   </si>
+  <si>
+    <t>Financial Limit</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -304,8 +307,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +845,7 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -882,25 +915,40 @@
     <xf numFmtId="0" fontId="29" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449881BD-6A68-49C0-AA20-83DAB95B90EE}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1423,7 +1471,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="16"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1">
@@ -1470,10 +1518,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="18">
         <f>SUM(E4:E10)</f>
         <v>0</v>
@@ -1545,7 +1593,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="28"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1"/>
@@ -1577,7 +1625,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1616,7 +1664,7 @@
       <c r="M21" s="1"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="H24" s="26"/>
+      <c r="H24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1631,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCDC333-A2EA-4E11-B848-97C032B08655}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1643,32 +1691,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="6"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="6"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1677,7 +1725,7 @@
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="6"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1686,7 +1734,7 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="6"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1695,7 +1743,7 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="6"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1704,7 +1752,7 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="6"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1713,7 +1761,7 @@
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="6"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
@@ -1724,7 +1772,7 @@
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="6"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1733,41 +1781,41 @@
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="6"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6"/>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="6"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="6"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="6"/>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="6"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="6"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="6"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="6"/>
       <c r="E15" s="22"/>
       <c r="G15" s="6"/>
@@ -1777,7 +1825,7 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="6"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="6"/>
       <c r="F16" s="22"/>
       <c r="G16" s="6"/>
@@ -1787,7 +1835,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="6"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6"/>
       <c r="E17" s="22"/>
       <c r="G17" s="6"/>
@@ -1797,7 +1845,7 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="6"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6"/>
       <c r="F18" s="22"/>
       <c r="G18" s="6"/>
@@ -1807,7 +1855,7 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="6"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6"/>
       <c r="E19" s="22"/>
       <c r="G19" s="6"/>
@@ -1817,112 +1865,128 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="6"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="6"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="6"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="6"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="I23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="6"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="6"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="I25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="6"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="29"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="6"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="I27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="6"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="29"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="6"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="I29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="6"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="J30" s="29"/>
+      <c r="J30" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CDC787A71DDF645B3B1EC4B4C087709" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfcc5dabae62faba7569d214b4f3e22c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2036,22 +2100,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835BF43D-5F5B-4A92-8B6A-74ACA0EB3617}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2065,27 +2137,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA689A5-2DDE-4193-801A-F36D3E40FA78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31452BF2-B3C4-4EBE-BE76-B62708FA3B9D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>